--- a/result_data/test_nlt.xlsx
+++ b/result_data/test_nlt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="507">
   <si>
     <t>my_professions</t>
   </si>
@@ -43,6 +43,9 @@
     <t>senior software engineer</t>
   </si>
   <si>
+    <t>library technical assistant ii</t>
+  </si>
+  <si>
     <t>transit operator</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>casino dealer</t>
   </si>
   <si>
+    <t>executive chef</t>
+  </si>
+  <si>
     <t>clinical pharmacist</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>director is operations</t>
   </si>
   <si>
+    <t>chief operating officer</t>
+  </si>
+  <si>
     <t>financial controller</t>
   </si>
   <si>
@@ -640,6 +649,9 @@
     <t>3d artist</t>
   </si>
   <si>
+    <t>research and development engineer</t>
+  </si>
+  <si>
     <t>team leader</t>
   </si>
   <si>
@@ -649,6 +661,9 @@
     <t>truck driver</t>
   </si>
   <si>
+    <t>quality assurance manager</t>
+  </si>
+  <si>
     <t>massage therapist</t>
   </si>
   <si>
@@ -661,42 +676,174 @@
     <t>undefined</t>
   </si>
   <si>
+    <t>software developers systems software</t>
+  </si>
+  <si>
+    <t>library technicians</t>
+  </si>
+  <si>
+    <t>baristas</t>
+  </si>
+  <si>
+    <t>first-line supervisors of non-retail sales workers</t>
+  </si>
+  <si>
+    <t>computer systems analysts</t>
+  </si>
+  <si>
+    <t>instructional coordinators</t>
+  </si>
+  <si>
+    <t>computer user support specialists</t>
+  </si>
+  <si>
+    <t>molecular and cellular biologists</t>
+  </si>
+  <si>
+    <t>information security analysts</t>
+  </si>
+  <si>
+    <t>gaming dealers</t>
+  </si>
+  <si>
+    <t>chefs and head cooks</t>
+  </si>
+  <si>
+    <t>pharmacists</t>
+  </si>
+  <si>
+    <t>property real estate and community association managers</t>
+  </si>
+  <si>
+    <t>chief executives</t>
+  </si>
+  <si>
     <t>tellers</t>
   </si>
   <si>
     <t>managers all other</t>
   </si>
   <si>
+    <t>software developers applications</t>
+  </si>
+  <si>
     <t>physician assistants</t>
   </si>
   <si>
+    <t>history teachers postsecondary</t>
+  </si>
+  <si>
     <t>sales managers</t>
   </si>
   <si>
     <t>electrical engineers</t>
   </si>
   <si>
+    <t>heavy and tractor-trailer truck drivers</t>
+  </si>
+  <si>
+    <t>network and computer systems administrators</t>
+  </si>
+  <si>
+    <t>human resources managers</t>
+  </si>
+  <si>
+    <t>criminal investigators and special agents</t>
+  </si>
+  <si>
+    <t>physicists</t>
+  </si>
+  <si>
     <t>document management specialists</t>
   </si>
   <si>
     <t>real estate brokers</t>
   </si>
   <si>
+    <t>computer science teachers postsecondary</t>
+  </si>
+  <si>
+    <t>laborers and freight stock and material movers hand</t>
+  </si>
+  <si>
     <t>photographers</t>
   </si>
   <si>
+    <t>cost estimators</t>
+  </si>
+  <si>
+    <t>computer network support specialists</t>
+  </si>
+  <si>
+    <t>storage and distribution managers</t>
+  </si>
+  <si>
     <t>cooks all other</t>
   </si>
   <si>
+    <t>financial managers branch or department</t>
+  </si>
+  <si>
+    <t>foundry mold and coremakers</t>
+  </si>
+  <si>
+    <t>lawyers</t>
+  </si>
+  <si>
+    <t>emergency management directors</t>
+  </si>
+  <si>
+    <t>registered nurses</t>
+  </si>
+  <si>
+    <t>first-line supervisors of production and operating workers</t>
+  </si>
+  <si>
     <t>engineers all other</t>
   </si>
   <si>
+    <t>information technology project managers</t>
+  </si>
+  <si>
+    <t>military enlisted tactical operations and air weapons specialists and crew members all other</t>
+  </si>
+  <si>
+    <t>broadcast technicians</t>
+  </si>
+  <si>
+    <t>water and wastewater treatment plant and system operators</t>
+  </si>
+  <si>
+    <t>civil drafters</t>
+  </si>
+  <si>
+    <t>legislators</t>
+  </si>
+  <si>
+    <t>mechanical drafters</t>
+  </si>
+  <si>
+    <t>taxi drivers and chauffeurs</t>
+  </si>
+  <si>
+    <t>computer and information systems managers</t>
+  </si>
+  <si>
     <t>civil engineers</t>
   </si>
   <si>
+    <t>probation officers and correctional treatment specialists</t>
+  </si>
+  <si>
+    <t>radio operators</t>
+  </si>
+  <si>
     <t>purchasing managers</t>
   </si>
   <si>
+    <t>welders cutters and welder fitters</t>
+  </si>
+  <si>
     <t>database administrators</t>
   </si>
   <si>
@@ -706,30 +853,66 @@
     <t>accountants</t>
   </si>
   <si>
+    <t>landscaping and groundskeeping workers</t>
+  </si>
+  <si>
+    <t>real estate sales agents</t>
+  </si>
+  <si>
     <t>machinists</t>
   </si>
   <si>
+    <t>police fire and ambulance dispatchers</t>
+  </si>
+  <si>
     <t>graduate teaching assistants</t>
   </si>
   <si>
     <t>oral and maxillofacial surgeons</t>
   </si>
   <si>
+    <t>first-line supervisors of office and administrative support workers</t>
+  </si>
+  <si>
     <t>security guards</t>
   </si>
   <si>
+    <t>retail salespersons</t>
+  </si>
+  <si>
+    <t>treasurers and controllers</t>
+  </si>
+  <si>
     <t>geneticists</t>
   </si>
   <si>
     <t>graphic designers</t>
   </si>
   <si>
+    <t>personal financial advisors</t>
+  </si>
+  <si>
     <t>biologists</t>
   </si>
   <si>
+    <t>education administrators postsecondary</t>
+  </si>
+  <si>
+    <t>industrial engineering technologists</t>
+  </si>
+  <si>
+    <t>loan officers</t>
+  </si>
+  <si>
+    <t>executive secretaries and executive administrative assistants</t>
+  </si>
+  <si>
     <t>massage therapists</t>
   </si>
   <si>
+    <t>community and social service specialists all other</t>
+  </si>
+  <si>
     <t>Short Title</t>
   </si>
   <si>
@@ -742,6 +925,12 @@
     <t>Management Occupations</t>
   </si>
   <si>
+    <t>Computer and Mathematical Occupations</t>
+  </si>
+  <si>
+    <t>Education, Training, and Library Occupations</t>
+  </si>
+  <si>
     <t>Transportation and Material Moving Occupations</t>
   </si>
   <si>
@@ -751,7 +940,13 @@
     <t>Food Preparation and Serving Related Occupations</t>
   </si>
   <si>
-    <t>Computer and Mathematical Occupations</t>
+    <t>Life, Physical, and Social Science Occupations</t>
+  </si>
+  <si>
+    <t>Personal Care and Service Occupations</t>
+  </si>
+  <si>
+    <t>Healthcare Practitioners and Technical Occupations</t>
   </si>
   <si>
     <t>Office and Administrative Support Occupations</t>
@@ -760,15 +955,9 @@
     <t>Arts, Design, Entertainment, Sports, and Media Occupations</t>
   </si>
   <si>
-    <t>Healthcare Practitioners and Technical Occupations</t>
-  </si>
-  <si>
     <t>Architecture and Engineering Occupations</t>
   </si>
   <si>
-    <t>Education, Training, and Library Occupations</t>
-  </si>
-  <si>
     <t>Protective Service Occupations</t>
   </si>
   <si>
@@ -778,7 +967,16 @@
     <t>Production Occupations</t>
   </si>
   <si>
-    <t>Life, Physical, and Social Science Occupations</t>
+    <t>Legal Occupations</t>
+  </si>
+  <si>
+    <t>Military Specific Occupations</t>
+  </si>
+  <si>
+    <t>Community and Social Service Occupations</t>
+  </si>
+  <si>
+    <t>Building and Grounds Cleaning and Maintenance Occupations</t>
   </si>
   <si>
     <t>Healthcare Support Occupations</t>
@@ -787,7 +985,10 @@
     <t>['11-1011.00', '11-3031.01']</t>
   </si>
   <si>
-    <t>15-1133.00</t>
+    <t>['15-1133.00']</t>
+  </si>
+  <si>
+    <t>['25-4031.00']</t>
   </si>
   <si>
     <t>['53-3021.00', '53-4041.00']</t>
@@ -802,46 +1003,49 @@
     <t>['15-1132.00', '15-1133.00']</t>
   </si>
   <si>
-    <t>35-3022.01</t>
-  </si>
-  <si>
-    <t>['15-1111.00', '17-2072.00']</t>
-  </si>
-  <si>
-    <t>41-1012.00</t>
+    <t>['35-3022.01']</t>
+  </si>
+  <si>
+    <t>['15-1111.00', '17-2072.00', '17-2199.07']</t>
+  </si>
+  <si>
+    <t>['41-1012.00']</t>
   </si>
   <si>
     <t>['15-1133.00', '15-1143.00', '15-1143.01', '15-1152.00', '15-1199.02', '17-2061.00']</t>
   </si>
   <si>
-    <t>15-1121.00</t>
-  </si>
-  <si>
-    <t>25-9031.00</t>
-  </si>
-  <si>
-    <t>15-1151.00</t>
-  </si>
-  <si>
-    <t>19-1029.02</t>
-  </si>
-  <si>
-    <t>15-1122.00</t>
+    <t>['15-1121.00']</t>
+  </si>
+  <si>
+    <t>['25-9031.00']</t>
+  </si>
+  <si>
+    <t>['15-1151.00']</t>
+  </si>
+  <si>
+    <t>['19-1029.02']</t>
+  </si>
+  <si>
+    <t>['15-1122.00']</t>
   </si>
   <si>
     <t>['15-1132.00', '15-1133.00', '15-1151.00', '17-2072.01']</t>
   </si>
   <si>
-    <t>['13-1199.00', '43-3021.00', '43-3021.02', '43-4141.00', '43-6011.00', '43-6013.00']</t>
-  </si>
-  <si>
-    <t>39-3011.00</t>
-  </si>
-  <si>
-    <t>29-1051.00</t>
-  </si>
-  <si>
-    <t>49-9069.00</t>
+    <t>['13-1199.00', '43-3021.00', '43-3021.02', '43-4141.00', '43-6011.00', '43-6013.00', '43-6014.00']</t>
+  </si>
+  <si>
+    <t>['39-3011.00']</t>
+  </si>
+  <si>
+    <t>['35-1011.00']</t>
+  </si>
+  <si>
+    <t>['29-1051.00']</t>
+  </si>
+  <si>
+    <t>['17-3031.01', '49-9069.00']</t>
   </si>
   <si>
     <t>['15-1132.00', '17-2141.00', '17-2199.00', '17-2199.05', '17-2199.06', '17-2199.10', '17-2199.11', '41-9031.00', '51-4012.00']</t>
@@ -850,7 +1054,7 @@
     <t>['11-9141.00', '41-9021.00', '41-9022.00']</t>
   </si>
   <si>
-    <t>11-9141.00</t>
+    <t>['11-9141.00']</t>
   </si>
   <si>
     <t>['11-9199.00', '35-9011.00', '41-1011.00']</t>
@@ -862,7 +1066,7 @@
     <t>['11-1011.00', '11-1021.00', '11-2022.00', '41-1011.00']</t>
   </si>
   <si>
-    <t>11-1011.00</t>
+    <t>['11-1011.00']</t>
   </si>
   <si>
     <t>['15-1131.00', '15-1132.00']</t>
@@ -889,7 +1093,7 @@
     <t>['11-3021.00', '17-2141.02']</t>
   </si>
   <si>
-    <t>15-1132.00</t>
+    <t>['15-1132.00']</t>
   </si>
   <si>
     <t>['21-1012.00', '21-1019.00', '21-1092.00', '21-1093.00', '27-2012.05', '29-1069.00', '29-1141.00', '31-9092.00']</t>
@@ -910,7 +1114,7 @@
     <t>['29-1071.00']</t>
   </si>
   <si>
-    <t>25-1125.00</t>
+    <t>['25-1125.00']</t>
   </si>
   <si>
     <t>['11-2022.00']</t>
@@ -931,7 +1135,7 @@
     <t>['11-2022.00', '41-4012.00']</t>
   </si>
   <si>
-    <t>53-3032.00</t>
+    <t>['53-3032.00']</t>
   </si>
   <si>
     <t>['11-9031.00', '11-9032.00']</t>
@@ -940,10 +1144,10 @@
     <t>['17-3026.00', '17-3029.09', '51-4021.00', '51-9023.00', '51-9141.00', '51-9199.00']</t>
   </si>
   <si>
-    <t>15-1142.00</t>
-  </si>
-  <si>
-    <t>11-3121.00</t>
+    <t>['15-1142.00']</t>
+  </si>
+  <si>
+    <t>['11-3121.00']</t>
   </si>
   <si>
     <t>['11-3021.00', '15-1152.00']</t>
@@ -952,10 +1156,10 @@
     <t>['27-1024.00', '43-9031.00']</t>
   </si>
   <si>
-    <t>33-3021.03</t>
-  </si>
-  <si>
-    <t>['17-3024.00', '17-3029.08', '17-3029.09', '31-9093.00', '37-2021.00', '47-2011.00', '47-2152.01', '47-2152.02', '47-3015.00', '47-4071.00', '47-4099.02', '49-2011.00', '49-2022.00', '49-2092.00', '49-2094.00', '49-2097.00', '49-2098.00', '49-3023.02', '49-3031.00', '49-3041.00', '49-3051.00', '49-3052.00', '49-3091.00', '49-3092.00', '49-3093.00', '49-9011.00', '49-9012.00', '49-9021.01', '49-9052.00', '49-9062.00', '49-9071.00', '49-9081.00', '49-9091.00', '49-9099.00', '53-6031.00', '53-7072.00']</t>
+    <t>['33-3021.03']</t>
+  </si>
+  <si>
+    <t>['17-3024.00', '17-3029.08', '17-3029.09', '31-9093.00', '37-2021.00', '47-2011.00', '47-2152.01', '47-2152.02', '47-3015.00', '47-4071.00', '47-4099.02', '49-2011.00', '49-2022.00', '49-2092.00', '49-2094.00', '49-2097.00', '49-2098.00', '49-3023.02', '49-3031.00', '49-3041.00', '49-3051.00', '49-3052.00', '49-3053.00', '49-3091.00', '49-3092.00', '49-3093.00', '49-9011.00', '49-9012.00', '49-9021.01', '49-9021.02', '49-9031.00', '49-9052.00', '49-9062.00', '49-9071.00', '49-9081.00', '49-9091.00', '49-9099.00', '53-6031.00', '53-7072.00']</t>
   </si>
   <si>
     <t>['17-2111.02', '17-2141.01']</t>
@@ -964,7 +1168,7 @@
     <t>['43-4081.00', '43-4171.00']</t>
   </si>
   <si>
-    <t>19-2012.00</t>
+    <t>['19-2012.00']</t>
   </si>
   <si>
     <t>['15-1199.12']</t>
@@ -994,13 +1198,13 @@
     <t>['41-3021.00', '45-1011.07', '51-1011.00']</t>
   </si>
   <si>
-    <t>25-1021.00</t>
+    <t>['25-1021.00']</t>
   </si>
   <si>
     <t>['47-5041.00', '53-6051.07']</t>
   </si>
   <si>
-    <t>53-7062.00</t>
+    <t>['53-7062.00']</t>
   </si>
   <si>
     <t>['27-2012.01', '27-3022.00']</t>
@@ -1012,7 +1216,10 @@
     <t>['11-3021.00', '15-1121.00', '15-1122.00', '15-1132.00', '15-1133.00', '15-1152.00', '17-2061.00']</t>
   </si>
   <si>
-    <t>13-1051.00</t>
+    <t>['13-1051.00']</t>
+  </si>
+  <si>
+    <t>['15-1152.00']</t>
   </si>
   <si>
     <t>['29-1199.05', '29-2091.00', '33-3012.00']</t>
@@ -1024,7 +1231,7 @@
     <t>['11-1021.00', '11-3051.02', '11-3051.03', '11-3051.04', '11-3051.06', '11-9061.00', '11-9199.09', '17-2171.00', '27-2012.05', '43-5011.00', '53-1011.00']</t>
   </si>
   <si>
-    <t>11-3071.02</t>
+    <t>['11-3071.02']</t>
   </si>
   <si>
     <t>['11-1021.00', '11-3011.00', '11-3031.01', '13-1011.00', '43-1011.00', '43-4041.01']</t>
@@ -1036,28 +1243,28 @@
     <t>['35-2019.00']</t>
   </si>
   <si>
-    <t>11-3031.02</t>
+    <t>['11-3031.02']</t>
   </si>
   <si>
     <t>['15-1142.00', '15-1143.01', '15-1151.00', '15-1152.00', '49-2022.00']</t>
   </si>
   <si>
-    <t>51-4071.00</t>
+    <t>['51-4071.00']</t>
   </si>
   <si>
     <t>['15-1143.00', '15-1152.00']</t>
   </si>
   <si>
-    <t>23-1011.00</t>
-  </si>
-  <si>
-    <t>11-9161.00</t>
-  </si>
-  <si>
-    <t>29-1141.00</t>
-  </si>
-  <si>
-    <t>51-1011.00</t>
+    <t>['23-1011.00']</t>
+  </si>
+  <si>
+    <t>['11-9161.00']</t>
+  </si>
+  <si>
+    <t>['29-1141.00']</t>
+  </si>
+  <si>
+    <t>['51-1011.00']</t>
   </si>
   <si>
     <t>['47-2011.00', '47-2031.01', '47-2221.00', '49-3091.00', '51-2011.00', '51-2021.00', '51-2022.00', '51-2023.00', '51-2031.00', '51-2092.00', '51-2093.00', '51-2099.00', '51-6011.00', '51-6042.00', '51-9061.00', '51-9199.00']</t>
@@ -1075,7 +1282,7 @@
     <t>['17-2199.00']</t>
   </si>
   <si>
-    <t>15-1199.09</t>
+    <t>['15-1199.09']</t>
   </si>
   <si>
     <t>['11-3071.01', '11-3071.02', '11-9131.00', '11-9199.00', '27-2012.03', '41-1011.00', '53-6031.00']</t>
@@ -1084,13 +1291,13 @@
     <t>['11-3021.00', '15-1141.00', '15-1142.00']</t>
   </si>
   <si>
-    <t>55-3019.00</t>
+    <t>['55-3019.00']</t>
   </si>
   <si>
     <t>['13-1199.06', '35-3022.01', '41-2011.00', '41-2031.00', '41-3021.00', '41-3031.02', '41-3099.00', '41-3099.01', '41-4011.07', '43-5081.01']</t>
   </si>
   <si>
-    <t>27-4012.00</t>
+    <t>['27-4012.00']</t>
   </si>
   <si>
     <t>['27-2012.05', '27-4012.00', '27-4014.00']</t>
@@ -1102,16 +1309,16 @@
     <t>['33-1011.00', '33-1012.00', '33-3021.01']</t>
   </si>
   <si>
-    <t>51-8031.00</t>
+    <t>['51-8031.00']</t>
   </si>
   <si>
     <t>['11-3031.01', '11-3031.02']</t>
   </si>
   <si>
-    <t>17-3011.02</t>
-  </si>
-  <si>
-    <t>11-1031.00</t>
+    <t>['17-3011.02']</t>
+  </si>
+  <si>
+    <t>['11-1031.00']</t>
   </si>
   <si>
     <t>['25-2022.00', '25-2031.00', '25-3099.00', '25-9041.00']</t>
@@ -1120,16 +1327,16 @@
     <t>['33-3011.00', '33-3012.00', '33-9031.00', '33-9032.00', '33-9093.00']</t>
   </si>
   <si>
-    <t>17-3013.00</t>
+    <t>['17-3013.00']</t>
   </si>
   <si>
     <t>['13-2081.00', '43-3021.02', '43-3031.00', '43-3051.00']</t>
   </si>
   <si>
-    <t>53-3041.00</t>
-  </si>
-  <si>
-    <t>11-3021.00</t>
+    <t>['53-3041.00']</t>
+  </si>
+  <si>
+    <t>['11-3021.00']</t>
   </si>
   <si>
     <t>['11-1011.00', '11-1011.03', '11-1021.00', '11-1031.00', '11-2011.00', '11-2011.01', '11-2021.00', '11-2022.00', '11-2031.00', '11-3011.00', '11-3021.00', '11-3031.00', '11-3031.01', '11-3031.02', '11-3051.00', '11-3051.01', '11-3051.02', '11-3051.03', '11-3051.04', '11-3051.05', '11-3051.06', '11-3061.00', '11-3071.00', '11-3071.01', '11-3071.02', '11-3071.03', '11-3111.00', '11-3121.00', '11-3131.00', '11-9013.01', '11-9013.02', '11-9013.03', '11-9021.00', '11-9031.00', '11-9032.00', '11-9033.00', '11-9039.00', '11-9039.01', '11-9039.02', '11-9041.00', '11-9041.01', '11-9051.00', '11-9061.00', '11-9071.00', '11-9081.00', '11-9111.00', '11-9121.00', '11-9121.01', '11-9121.02', '11-9131.00', '11-9141.00', '11-9151.00', '11-9161.00', '11-9199.00', '11-9199.01', '11-9199.02', '11-9199.03', '11-9199.04', '11-9199.07', '11-9199.08', '11-9199.09', '11-9199.10', '11-9199.11', '13-1011.00', '13-1021.00', '13-1022.00', '13-1023.00', '13-1031.00', '13-1031.01', '13-1031.02', '13-1032.00', '13-1041.00', '13-1041.01', '13-1041.02', '13-1041.03', '13-1041.04', '13-1041.06', '13-1041.07', '13-1051.00', '13-1071.00', '13-1074.00', '13-1075.00', '13-1081.00', '13-1081.01', '13-1081.02', '13-1111.00', '13-1121.00', '13-1131.00', '13-1141.00', '13-1151.00', '13-1161.00', '13-1199.00', '13-1199.01', '13-1199.02', '13-1199.03', '13-1199.04', '13-1199.05', '13-1199.06', '13-2011.00', '13-2011.01', '13-2011.02', '13-2021.00', '13-2021.01', '13-2021.02', '13-2031.00', '13-2041.00', '13-2051.00', '13-2052.00', '13-2053.00', '13-2061.00', '13-2071.00', '13-2071.01', '13-2072.00', '13-2081.00', '13-2082.00', '13-2099.00', '13-2099.01', '13-2099.02', '13-2099.03', '13-2099.04', '15-1111.00', '15-1121.00', '15-1121.01', '15-1122.00', '15-1131.00', '15-1132.00', '15-1133.00', '15-1134.00', '15-1141.00', '15-1142.00', '15-1143.00', '15-1143.01', '15-1151.00', '15-1152.00', '15-1199.00', '15-1199.01', '15-1199.02', '15-1199.03', '15-1199.04', '15-1199.05', '15-1199.06', '15-1199.07', '15-1199.08', '15-1199.09', '15-1199.10', '15-1199.11', '15-1199.12', '15-2011.00', '15-2021.00', '15-2031.00', '15-2041.00', '15-2041.01', '15-2041.02', '15-2091.00', '15-2099.00', '17-1011.00', '17-1012.00', '17-1021.00', '17-1022.00', '17-1022.01', '17-2011.00', '17-2021.00', '17-2031.00', '17-2041.00', '17-2051.00', '17-2051.01', '17-2061.00', '17-2071.00', '17-2072.00', '17-2072.01', '17-2081.00', '17-2081.01', '17-2111.00', '17-2111.01', '17-2111.02', '17-2111.03', '17-2112.00', '17-2112.01', '17-2121.00', '17-2121.01', '17-2121.02', '17-2131.00', '17-2141.00', '17-2141.01', '17-2141.02', '17-2151.00', '17-2161.00', '17-2171.00', '17-2199.00', '17-2199.01', '17-2199.02', '17-2199.03', '17-2199.04', '17-2199.05', '17-2199.06', '17-2199.07', '17-2199.08', '17-2199.09', '17-2199.10', '17-2199.11', '17-3011.00', '17-3011.01', '17-3011.02', '17-3012.00', '17-3012.01', '17-3012.02', '17-3013.00', '17-3019.00', '17-3021.00', '17-3022.00', '17-3023.00', '17-3023.01', '17-3023.03', '17-3024.00', '17-3024.01', '17-3025.00', '17-3026.00', '17-3027.00', '17-3027.01', '17-3029.00', '17-3029.01', '17-3029.02', '17-3029.03', '17-3029.04', '17-3029.05', '17-3029.06', '17-3029.07', '17-3029.08', '17-3029.09', '17-3029.10', '17-3029.11', '17-3029.12', '17-3031.00', '17-3031.01', '17-3031.02', '19-1011.00', '19-1012.00', '19-1013.00', '19-1020.01', '19-1021.00', '19-1022.00', '19-1023.00', '19-1029.00', '19-1029.01', '19-1029.02', '19-1029.03', '19-1031.00', '19-1031.01', '19-1031.02', '19-1031.03', '19-1032.00', '19-1041.00', '19-1042.00', '19-1099.00', '19-2011.00', '19-2012.00', '19-2021.00', '19-2031.00', '19-2032.00', '19-2041.00', '19-2041.01', '19-2041.02', '19-2041.03', '19-2042.00', '19-2043.00', '19-2099.00', '19-2099.01', '19-3011.00', '19-3011.01', '19-3022.00', '19-3031.00', '19-3031.01', '19-3031.02', '19-3031.03', '19-3032.00', '19-3039.00', '19-3039.01', '19-3041.00', '19-3051.00', '19-3091.00', '19-3091.01', '19-3091.02', '19-3092.00', '19-3093.00', '19-3094.00', '19-3099.00', '19-3099.01', '19-4011.00', '19-4011.01', '19-4011.02', '19-4021.00', '19-4031.00', '19-4041.00', '19-4041.01', '19-4041.02', '19-4051.00', '19-4051.01', '19-4051.02', '19-4061.00', '19-4061.01', '19-4091.00', '19-4092.00', '19-4093.00', '19-4099.00', '19-4099.01', '19-4099.02', '19-4099.03', '21-1011.00', '21-1012.00', '21-1013.00', '21-1014.00', '21-1015.00', '21-1019.00', '21-1021.00', '21-1022.00', '21-1023.00', '21-1029.00', '21-1091.00', '21-1092.00', '21-1093.00', '21-1094.00', '21-1099.00', '21-2011.00', '21-2021.00', '21-2099.00', '23-1011.00', '23-1012.00', '23-1021.00', '23-1022.00', '23-1023.00', '23-2011.00', '23-2091.00', '23-2093.00', '23-2099.00', '25-1011.00', '25-1021.00', '25-1022.00', '25-1031.00', '25-1032.00', '25-1041.00', '25-1042.00', '25-1043.00', '25-1051.00', '25-1052.00', '25-1053.00', '25-1054.00', '25-1061.00', '25-1062.00', '25-1063.00', '25-1064.00', '25-1065.00', '25-1066.00', '25-1067.00', '25-1069.00', '25-1071.00', '25-1072.00', '25-1081.00', '25-1082.00', '25-1111.00', '25-1112.00', '25-1113.00', '25-1121.00', '25-1122.00', '25-1123.00', '25-1124.00', '25-1125.00', '25-1126.00', '25-1191.00', '25-1192.00', '25-1193.00', '25-1194.00', '25-1199.00', '25-2011.00', '25-2012.00', '25-2021.00', '25-2022.00', '25-2023.00', '25-2031.00', '25-2032.00', '25-2051.00', '25-2052.00', '25-2053.00', '25-2054.00', '25-2059.00', '25-2059.01', '25-3011.00', '25-3021.00', '25-3099.00', '25-3099.02', '25-4011.00', '25-4012.00', '25-4013.00', '25-4021.00', '25-4031.00', '25-9011.00', '25-9021.00', '25-9031.00', '25-9031.01', '25-9041.00', '25-9099.00', '27-1011.00', '27-1012.00', '27-1013.00', '27-1014.00', '27-1019.00', '27-1021.00', '27-1022.00', '27-1023.00', '27-1024.00', '27-1025.00', '27-1026.00', '27-1027.00', '27-1029.00', '27-2011.00', '27-2012.00', '27-2012.01', '27-2012.02', '27-2012.03', '27-2012.04', '27-2012.05', '27-2021.00', '27-2022.00', '27-2023.00', '27-2031.00', '27-2032.00', '27-2041.00', '27-2041.01', '27-2041.04', '27-2042.00', '27-2042.01', '27-2042.02', '27-2099.00', '27-3011.00', '27-3012.00', '27-3021.00', '27-3022.00', '27-3031.00', '27-3041.00', '27-3042.00', '27-3043.00', '27-3043.04', '27-3043.05', '27-3091.00', '27-3099.00', '27-4011.00', '27-4012.00', '27-4013.00', '27-4014.00', '27-4021.00', '27-4031.00', '27-4032.00', '27-4099.00', '29-1011.00', '29-1021.00', '29-1022.00', '29-1023.00', '29-1024.00', '29-1029.00', '29-1031.00', '29-1041.00', '29-1051.00', '29-1061.00', '29-1062.00', '29-1063.00', '29-1064.00', '29-1065.00', '29-1066.00', '29-1067.00', '29-1069.00', '29-1069.01', '29-1069.02', '29-1069.03', '29-1069.04', '29-1069.05', '29-1069.06', '29-1069.07', '29-1069.08', '29-1069.09', '29-1069.10', '29-1069.11', '29-1069.12', '29-1071.00', '29-1071.01', '29-1081.00', '29-1122.00', '29-1122.01', '29-1123.00', '29-1124.00', '29-1125.00', '29-1125.01', '29-1125.02', '29-1126.00', '29-1127.00', '29-1128.00', '29-1129.00', '29-1131.00', '29-1141.00', '29-1141.01', '29-1141.02', '29-1141.03', '29-1141.04', '29-1151.00', '29-1161.00', '29-1171.00', '29-1181.00', '29-1199.00', '29-1199.01', '29-1199.04', '29-1199.05', '29-2011.00', '29-2011.01', '29-2011.02', '29-2011.03', '29-2012.00', '29-2021.00', '29-2031.00', '29-2032.00', '29-2033.00', '29-2034.00', '29-2035.00', '29-2041.00', '29-2051.00', '29-2052.00', '29-2053.00', '29-2054.00', '29-2055.00', '29-2056.00', '29-2057.00', '29-2061.00', '29-2071.00', '29-2081.00', '29-2091.00', '29-2092.00', '29-2099.00', '29-2099.01', '29-2099.05', '29-2099.06', '29-2099.07', '29-9011.00', '29-9012.00', '29-9091.00', '29-9092.00', '29-9099.00', '29-9099.01', '31-1011.00', '31-1013.00', '31-1014.00', '31-1015.00', '31-2011.00', '31-2012.00', '31-2021.00', '31-2022.00', '31-9011.00', '31-9091.00', '31-9092.00', '31-9093.00', '31-9094.00', '31-9095.00', '31-9096.00', '31-9097.00', '31-9099.00', '31-9099.01', '31-9099.02', '33-1011.00', '33-1012.00', '33-1021.00', '33-1021.01', '33-1021.02', '33-1099.00', '33-2011.00', '33-2011.01', '33-2011.02', '33-2021.00', '33-2021.01', '33-2021.02', '33-2022.00', '33-3011.00', '33-3012.00', '33-3021.00', '33-3021.01', '33-3021.02', '33-3021.03', '33-3021.05', '33-3021.06', '33-3031.00', '33-3041.00', '33-3051.00', '33-3051.01', '33-3051.03', '33-3052.00', '33-9011.00', '33-9021.00', '33-9031.00', '33-9032.00', '33-9091.00', '33-9092.00', '33-9093.00', '33-9099.00', '33-9099.02', '35-1011.00', '35-1012.00', '35-2011.00', '35-2012.00', '35-2013.00', '35-2014.00', '35-2015.00', '35-2019.00', '35-2021.00', '35-3011.00', '35-3021.00', '35-3022.00', '35-3022.01', '35-3031.00', '35-3041.00', '35-9011.00', '35-9021.00', '35-9031.00', '35-9099.00', '37-1011.00', '37-1012.00', '37-2011.00', '37-2012.00', '37-2019.00', '37-2021.00', '37-3011.00', '37-3012.00', '37-3013.00', '37-3019.00', '39-1011.00', '39-1012.00', '39-1021.00', '39-1021.01', '39-2011.00', '39-2021.00', '39-3011.00', '39-3012.00', '39-3019.00', '39-3021.00', '39-3031.00', '39-3091.00', '39-3092.00', '39-3093.00', '39-3099.00', '39-4011.00', '39-4021.00', '39-4031.00', '39-5011.00', '39-5012.00', '39-5091.00', '39-5092.00', '39-5093.00', '39-5094.00', '39-6011.00', '39-6012.00', '39-7011.00', '39-7012.00', '39-9011.00', '39-9011.01', '39-9021.00', '39-9031.00', '39-9032.00', '39-9041.00', '39-9099.00', '41-1011.00', '41-1012.00', '41-2011.00', '41-2012.00', '41-2021.00', '41-2022.00', '41-2031.00', '41-3011.00', '41-3021.00', '41-3031.00', '41-3031.01', '41-3031.02', '41-3031.03', '41-3041.00', '41-3099.00', '41-3099.01', '41-4011.00', '41-4011.07', '41-4012.00', '41-9011.00', '41-9012.00', '41-9021.00', '41-9022.00', '41-9031.00', '41-9041.00', '41-9091.00', '41-9099.00', '43-1011.00', '43-2011.00', '43-2021.00', '43-2099.00', '43-3011.00', '43-3021.00', '43-3021.01', '43-3021.02', '43-3031.00', '43-3041.00', '43-3051.00', '43-3061.00', '43-3071.00', '43-3099.00', '43-4011.00', '43-4021.00', '43-4031.00', '43-4031.01', '43-4031.02', '43-4031.03', '43-4041.00', '43-4041.01', '43-4041.02', '43-4051.00', '43-4051.03', '43-4061.00', '43-4071.00', '43-4081.00', '43-4111.00', '43-4121.00', '43-4131.00', '43-4141.00', '43-4151.00', '43-4161.00', '43-4171.00', '43-4181.00', '43-4199.00', '43-5011.00', '43-5011.01', '43-5021.00', '43-5031.00', '43-5032.00', '43-5041.00', '43-5051.00', '43-5052.00', '43-5053.00', '43-5061.00', '43-5071.00', '43-5081.00', '43-5081.01', '43-5081.02', '43-5081.03', '43-5081.04', '43-5111.00', '43-6011.00', '43-6012.00', '43-6013.00', '43-6014.00', '43-9011.00', '43-9021.00', '43-9022.00', '43-9031.00', '43-9041.00', '43-9041.01', '43-9041.02', '43-9051.00', '43-9061.00', '43-9071.00', '43-9081.00', '43-9111.00', '43-9111.01', '43-9199.00', '45-1011.00', '45-1011.05', '45-1011.06', '45-1011.07', '45-1011.08', '45-2011.00', '45-2021.00', '45-2041.00', '45-2091.00', '45-2092.00', '45-2092.01', '45-2092.02', '45-2093.00', '45-2099.00', '45-3011.00', '45-3021.00', '45-4011.00', '45-4021.00', '45-4022.00', '45-4023.00', '45-4029.00', '47-1011.00', '47-1011.03', '47-2011.00', '47-2021.00', '47-2022.00', '47-2031.00', '47-2031.01', '47-2031.02', '47-2041.00', '47-2042.00', '47-2043.00', '47-2044.00', '47-2051.00', '47-2053.00', '47-2061.00', '47-2071.00', '47-2072.00', '47-2073.00', '47-2081.00', '47-2082.00', '47-2111.00', '47-2121.00', '47-2131.00', '47-2132.00', '47-2141.00', '47-2142.00', '47-2151.00', '47-2152.00', '47-2152.01', '47-2152.02', '47-2161.00', '47-2171.00', '47-2181.00', '47-2211.00', '47-2221.00', '47-2231.00', '47-3011.00', '47-3012.00', '47-3013.00', '47-3014.00', '47-3015.00', '47-3016.00', '47-3019.00', '47-4011.00', '47-4021.00', '47-4031.00', '47-4041.00', '47-4051.00', '47-4061.00', '47-4071.00', '47-4091.00', '47-4099.00', '47-4099.02', '47-4099.03', '47-5011.00', '47-5012.00', '47-5013.00', '47-5021.00', '47-5031.00', '47-5041.00', '47-5042.00', '47-5049.00', '47-5051.00', '47-5061.00', '47-5071.00', '47-5081.00', '47-5099.00', '49-1011.00', '49-2011.00', '49-2021.00', '49-2021.01', '49-2022.00', '49-2091.00', '49-2092.00', '49-2093.00', '49-2094.00', '49-2095.00', '49-2096.00', '49-2097.00', '49-2098.00', '49-3011.00', '49-3021.00', '49-3022.00', '49-3023.00', '49-3023.01', '49-3023.02', '49-3031.00', '49-3041.00', '49-3042.00', '49-3043.00', '49-3051.00', '49-3052.00', '49-3053.00', '49-3091.00', '49-3092.00', '49-3093.00', '49-9011.00', '49-9012.00', '49-9021.00', '49-9021.01', '49-9021.02', '49-9031.00', '49-9041.00', '49-9043.00', '49-9044.00', '49-9045.00', '49-9051.00', '49-9052.00', '49-9061.00', '49-9062.00', '49-9063.00', '49-9064.00', '49-9069.00', '49-9071.00', '49-9081.00', '49-9091.00', '49-9092.00', '49-9093.00', '49-9094.00', '49-9095.00', '49-9096.00', '49-9097.00', '49-9098.00', '49-9099.00', '49-9099.01', '51-1011.00', '51-2011.00', '51-2021.00', '51-2022.00', '51-2023.00', '51-2031.00', '51-2041.00', '51-2091.00', '51-2092.00', '51-2093.00', '51-2099.00', '51-3011.00', '51-3021.00', '51-3022.00', '51-3023.00', '51-3091.00', '51-3092.00', '51-3093.00', '51-3099.00', '51-4011.00', '51-4012.00', '51-4021.00', '51-4022.00', '51-4023.00', '51-4031.00', '51-4032.00', '51-4033.00', '51-4034.00', '51-4035.00', '51-4041.00', '51-4051.00', '51-4052.00', '51-4061.00', '51-4062.00', '51-4071.00', '51-4072.00', '51-4081.00', '51-4111.00', '51-4121.00', '51-4121.06', '51-4121.07', '51-4122.00', '51-4191.00', '51-4192.00', '51-4193.00', '51-4194.00', '51-4199.00', '51-5111.00', '51-5112.00', '51-5113.00', '51-6011.00', '51-6021.00', '51-6031.00', '51-6041.00', '51-6042.00', '51-6051.00', '51-6052.00', '51-6061.00', '51-6062.00', '51-6063.00', '51-6064.00', '51-6091.00', '51-6092.00', '51-6093.00', '51-6099.00', '51-7011.00', '51-7021.00', '51-7031.00', '51-7032.00', '51-7041.00', '51-7042.00', '51-7099.00', '51-8011.00', '51-8012.00', '51-8013.00', '51-8021.00', '51-8031.00', '51-8091.00', '51-8092.00', '51-8093.00', '51-8099.00', '51-8099.01', '51-8099.02', '51-8099.03', '51-8099.04', '51-9011.00', '51-9012.00', '51-9021.00', '51-9022.00', '51-9023.00', '51-9031.00', '51-9032.00', '51-9041.00', '51-9051.00', '51-9061.00', '51-9071.00', '51-9071.01', '51-9071.06', '51-9071.07', '51-9081.00', '51-9082.00', '51-9083.00', '51-9111.00', '51-9121.00', '51-9122.00', '51-9123.00', '51-9141.00', '51-9151.00', '51-9191.00', '51-9192.00', '51-9193.00', '51-9194.00', '51-9195.00', '51-9195.03', '51-9195.04', '51-9195.05', '51-9195.07', '51-9196.00', '51-9197.00', '51-9198.00', '51-9199.00', '51-9199.01', '53-1011.00', '53-1021.00', '53-1021.01', '53-1031.00', '53-2011.00', '53-2012.00', '53-2021.00', '53-2022.00', '53-2031.00', '53-3011.00', '53-3021.00', '53-3022.00', '53-3031.00', '53-3032.00', '53-3033.00', '53-3041.00', '53-3099.00', '53-4011.00', '53-4012.00', '53-4013.00', '53-4021.00', '53-4031.00', '53-4041.00', '53-4099.00', '53-5011.00', '53-5021.00', '53-5021.01', '53-5021.02', '53-5021.03', '53-5022.00', '53-5031.00', '53-6011.00', '53-6021.00', '53-6031.00', '53-6041.00', '53-6051.00', '53-6051.01', '53-6051.07', '53-6051.08', '53-6061.00', '53-6099.00', '53-7011.00', '53-7021.00', '53-7031.00', '53-7032.00', '53-7033.00', '53-7041.00', '53-7051.00', '53-7061.00', '53-7062.00', '53-7063.00', '53-7064.00', '53-7071.00', '53-7072.00', '53-7073.00', '53-7081.00', '53-7111.00', '53-7121.00', '53-7199.00', '55-1011.00', '55-1012.00', '55-1013.00', '55-1014.00', '55-1015.00', '55-1016.00', '55-1017.00', '55-1019.00', '55-2011.00', '55-2012.00', '55-2013.00', '55-3011.00', '55-3012.00', '55-3013.00', '55-3014.00', '55-3015.00', '55-3016.00', '55-3017.00', '55-3018.00', '55-3019.00']</t>
@@ -1141,22 +1348,22 @@
     <t>['35-3021.00', '35-3022.00', '35-3031.00', '35-3041.00', '35-9011.00']</t>
   </si>
   <si>
-    <t>21-1092.00</t>
+    <t>['21-1092.00']</t>
   </si>
   <si>
     <t>['43-5081.01', '43-5081.03', '51-6042.00', '53-7062.00']</t>
   </si>
   <si>
-    <t>27-2012.01</t>
-  </si>
-  <si>
-    <t>27-4013.00</t>
+    <t>['11-1021.00', '27-2012.01']</t>
+  </si>
+  <si>
+    <t>['27-4013.00']</t>
   </si>
   <si>
     <t>['11-3061.00']</t>
   </si>
   <si>
-    <t>51-4121.06</t>
+    <t>['51-4121.06']</t>
   </si>
   <si>
     <t>['29-1069.00', '29-1199.00']</t>
@@ -1198,10 +1405,10 @@
     <t>['11-2022.00', '41-1012.00']</t>
   </si>
   <si>
-    <t>37-3011.00</t>
-  </si>
-  <si>
-    <t>43-5031.00</t>
+    <t>['37-3011.00']</t>
+  </si>
+  <si>
+    <t>['15-1143.01', '43-5031.00']</t>
   </si>
   <si>
     <t>['13-2011.00', '13-2011.01']</t>
@@ -1210,7 +1417,7 @@
     <t>['11-3051.01', '19-4011.02', '19-4099.01', '51-9061.00']</t>
   </si>
   <si>
-    <t>41-9022.00</t>
+    <t>['41-9022.00']</t>
   </si>
   <si>
     <t>['51-4041.00']</t>
@@ -1219,10 +1426,7 @@
     <t>['13-1041.02', '13-2081.00', '17-3025.00', '17-3029.01', '33-2021.01', '33-3021.03', '33-3021.05', '39-1021.00', '43-4041.02', '45-2011.00', '45-4023.00', '47-4011.00', '51-6041.00', '51-9061.00', '53-6051.01', '53-6051.07', '53-6051.08']</t>
   </si>
   <si>
-    <t>17-2199.00</t>
-  </si>
-  <si>
-    <t>41-9021.00</t>
+    <t>['43-5031.00']</t>
   </si>
   <si>
     <t>['25-1191.00']</t>
@@ -1234,19 +1438,19 @@
     <t>['29-1022.00']</t>
   </si>
   <si>
-    <t>43-1011.00</t>
+    <t>['43-1011.00']</t>
   </si>
   <si>
     <t>['33-9032.00']</t>
   </si>
   <si>
-    <t>41-2031.00</t>
+    <t>['41-2031.00']</t>
   </si>
   <si>
     <t>['41-2021.00', '43-4051.00', '49-3051.00', '51-9061.00']</t>
   </si>
   <si>
-    <t>11-3031.01</t>
+    <t>['11-3031.01']</t>
   </si>
   <si>
     <t>['17-1011.00', '17-2051.00', '17-2121.01', '17-2121.02', '17-3011.02']</t>
@@ -1273,10 +1477,7 @@
     <t>['27-1024.00']</t>
   </si>
   <si>
-    <t>13-2011.02</t>
-  </si>
-  <si>
-    <t>['43-5031.00', '43-5061.00', '51-1011.00', '51-8031.00', '51-8092.00', '53-2021.00']</t>
+    <t>['43-5031.00', '43-5032.00', '43-5061.00', '51-1011.00', '51-8031.00', '51-8092.00', '53-2021.00']</t>
   </si>
   <si>
     <t>['13-2081.00', '41-2011.00', '41-3099.00', '41-9011.00', '41-9091.00', '41-9099.00', '43-3011.00', '43-5052.00', '53-7062.00', '53-7081.00', '53-7199.00']</t>
@@ -1288,31 +1489,28 @@
     <t>['53-1021.00', '53-7062.00']</t>
   </si>
   <si>
-    <t>13-2052.00</t>
+    <t>['13-2052.00']</t>
   </si>
   <si>
     <t>['19-1020.01']</t>
   </si>
   <si>
-    <t>25-1191.00</t>
-  </si>
-  <si>
-    <t>11-9033.00</t>
+    <t>['11-9033.00']</t>
   </si>
   <si>
     <t>['15-1142.00', '15-1151.00', '43-9011.00']</t>
   </si>
   <si>
-    <t>17-3029.05</t>
+    <t>['17-3029.05']</t>
   </si>
   <si>
     <t>['11-2022.00', '41-1012.00', '41-4011.00', '41-4011.07', '41-4012.00']</t>
   </si>
   <si>
-    <t>13-2072.00</t>
-  </si>
-  <si>
-    <t>43-6011.00</t>
+    <t>['13-2072.00']</t>
+  </si>
+  <si>
+    <t>['43-6011.00']</t>
   </si>
   <si>
     <t>['27-1013.00', '27-1014.00']</t>
@@ -1327,13 +1525,16 @@
     <t>['47-2071.00', '53-3032.00', '53-3033.00', '53-7051.00', '53-7081.00']</t>
   </si>
   <si>
+    <t>['11-3021.00', '11-3051.00', '11-3051.01', '15-1199.01', '17-2112.00', '17-3026.00', '19-1012.00', '51-1011.00']</t>
+  </si>
+  <si>
     <t>['31-9011.00']</t>
   </si>
   <si>
     <t>['11-3071.01', '19-3051.00', '53-4011.00', '53-4013.00', '53-4021.00']</t>
   </si>
   <si>
-    <t>21-1099.00</t>
+    <t>['21-1099.00']</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1733,19 +1934,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D2">
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1756,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1779,22 +1980,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1802,19 +2003,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D5">
-        <v>0.1111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1825,19 +2026,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1848,19 +2049,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1871,22 +2072,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1894,22 +2095,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1917,22 +2118,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1940,22 +2141,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1963,19 +2164,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1986,22 +2187,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2009,19 +2210,19 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -2032,19 +2233,19 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -2055,19 +2256,19 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -2078,22 +2279,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D17">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2101,19 +2302,19 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D18">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2121,22 +2322,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2144,25 +2345,25 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D20">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2170,19 +2371,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="F21" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2193,19 +2394,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -2216,22 +2417,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D23">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="F23" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2239,19 +2440,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D24">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2262,22 +2463,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2285,19 +2486,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D26">
         <v>0.3333333333333333</v>
       </c>
       <c r="E26" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F26" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2308,22 +2509,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2331,19 +2532,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D28">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E28" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F28" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2354,22 +2555,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D29">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2377,19 +2578,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2400,22 +2601,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D31">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2423,22 +2624,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2446,19 +2647,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2469,22 +2670,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2492,19 +2693,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -2515,19 +2716,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D36">
-        <v>0.06666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -2538,19 +2739,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -2561,22 +2762,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D38">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F38" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2584,19 +2785,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D39">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2607,22 +2808,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D40">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2630,19 +2831,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D41">
         <v>0.125</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -2653,19 +2854,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2676,19 +2877,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -2699,19 +2900,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D44">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="F44" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2722,22 +2923,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="F45" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2745,22 +2946,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D46">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F46" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2768,22 +2969,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D47">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2791,19 +2992,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2814,19 +3015,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -2837,19 +3038,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2860,19 +3061,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D51">
         <v>0.5</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -2883,22 +3084,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D52">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="F52" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2906,19 +3107,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D53">
         <v>0.5</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -2929,22 +3130,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D54">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2952,19 +3153,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D55">
         <v>0.5</v>
       </c>
       <c r="E55" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -2975,22 +3176,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D56">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="F56" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2998,22 +3199,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D57">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3021,22 +3222,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D58">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3044,22 +3245,22 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3067,42 +3268,42 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F60" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D61">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3110,45 +3311,45 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D62">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D63">
-        <v>0.02777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F63" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3159,22 +3360,22 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="F64" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3182,19 +3383,19 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D65">
-        <v>0.5</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="F65" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3205,22 +3406,22 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D66">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3228,22 +3429,22 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3251,22 +3452,22 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D68">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3274,22 +3475,22 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="F69" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3297,19 +3498,19 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D70">
-        <v>0.02631578947368421</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3320,19 +3521,19 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D71">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -3340,22 +3541,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D72">
-        <v>0.25</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E72" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3363,45 +3564,45 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="F73" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D74">
         <v>0.25</v>
       </c>
       <c r="E74" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="F74" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3412,22 +3613,22 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="D75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="F75" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3435,19 +3636,19 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D76">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E76" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -3455,22 +3656,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D77">
         <v>0.5</v>
       </c>
       <c r="E77" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F77" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -3478,22 +3679,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D78">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E78" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -3501,22 +3702,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D79">
         <v>0.5</v>
       </c>
       <c r="E79" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="F79" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -3527,22 +3728,22 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D80">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F80" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3550,19 +3751,19 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D81">
         <v>0.5</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F81" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3573,19 +3774,19 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D82">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F82" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -3596,19 +3797,19 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D83">
         <v>0.5</v>
       </c>
       <c r="E83" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F83" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -3619,22 +3820,22 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C84" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="F84" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3642,22 +3843,22 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E85" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3665,19 +3866,19 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D86">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="E86" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F86" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -3688,19 +3889,19 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D87">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="F87" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
@@ -3711,19 +3912,19 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D88">
         <v>0.1428571428571428</v>
       </c>
       <c r="E88" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F88" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -3734,65 +3935,65 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D89">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F89" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D90">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="F90" t="s">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D91">
-        <v>0.04347826086956522</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F91" t="s">
-        <v>334</v>
+        <v>402</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -3800,25 +4001,25 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D92">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E92" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F92" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3826,19 +4027,19 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D93">
-        <v>0.09090909090909091</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E93" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F93" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -3849,19 +4050,19 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D94">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F94" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
@@ -3872,19 +4073,19 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D95">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E95" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -3895,22 +4096,22 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D96">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F96" t="s">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3918,19 +4119,19 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E97" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="F97" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -3941,22 +4142,22 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D98">
         <v>0.1</v>
       </c>
       <c r="E98" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F98" t="s">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3964,19 +4165,19 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D99">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="F99" t="s">
-        <v>341</v>
+        <v>408</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -3987,19 +4188,19 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D100">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F100" t="s">
-        <v>342</v>
+        <v>409</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -4007,22 +4208,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D101">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E101" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F101" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -4030,22 +4231,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D102">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="F102" t="s">
-        <v>282</v>
+        <v>411</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -4053,22 +4254,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D103">
         <v>0.5</v>
       </c>
       <c r="E103" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="F103" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
@@ -4076,22 +4277,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D104">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F104" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -4102,22 +4303,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D105">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E105" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F105" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4125,19 +4326,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D106">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="F106" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -4148,65 +4349,65 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D107">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F107" t="s">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D108">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="F108" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D109">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="F109" t="s">
-        <v>348</v>
+        <v>416</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -4214,22 +4415,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C110" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D110">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E110" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F110" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -4240,19 +4441,19 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D111">
-        <v>0.3333333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="E111" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -4263,22 +4464,22 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D112">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>268</v>
+        <v>418</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4286,19 +4487,19 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D113">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E113" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -4309,22 +4510,22 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="F114" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4332,19 +4533,19 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D115">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E115" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -4355,19 +4556,19 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D116">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F116" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -4378,19 +4579,19 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="C117" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D117">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F117" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -4401,22 +4602,22 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D118">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E118" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4424,19 +4625,19 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D119">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E119" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -4447,19 +4648,19 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D120">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="F120" t="s">
-        <v>278</v>
+        <v>425</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -4467,45 +4668,45 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D121">
         <v>0.1</v>
       </c>
       <c r="E121" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>282</v>
+        <v>426</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D122">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F122" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -4513,25 +4714,25 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D123">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="F123" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4539,22 +4740,22 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D124">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="F124" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4562,19 +4763,19 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C125" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D125">
         <v>0.3333333333333333</v>
       </c>
       <c r="E125" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="F125" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -4582,22 +4783,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C126" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D126">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="E126" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F126" t="s">
-        <v>310</v>
+        <v>429</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -4605,45 +4806,45 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C127" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D127">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E127" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="F127" t="s">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D128">
         <v>0.5</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F128" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -4651,71 +4852,71 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="C129" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D129">
-        <v>0.04347826086956522</v>
+        <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="F129" t="s">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D130">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E130" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F130" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D131">
-        <v>0.1</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E131" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F131" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4723,88 +4924,88 @@
         <v>126</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D132">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="F132" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="F133" t="s">
-        <v>286</v>
+        <v>434</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D134">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E134" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F134" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D135">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="F135" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -4812,22 +5013,22 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C136" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D136">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="F136" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
@@ -4835,68 +5036,68 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C137" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D137">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E137" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="F137" t="s">
-        <v>282</v>
+        <v>436</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="C138" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D138">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F138" t="s">
-        <v>369</v>
+        <v>437</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C139" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D139">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F139" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
@@ -4904,45 +5105,45 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D140">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E140" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F140" t="s">
-        <v>282</v>
+        <v>438</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="C141" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D141">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="F141" t="s">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
@@ -4950,22 +5151,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C142" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="F142" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
@@ -4973,71 +5174,71 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C143" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
       <c r="F143" t="s">
-        <v>261</v>
+        <v>440</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="D144">
-        <v>0.0009017132551848512</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="F144" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C145" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E145" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="F145" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5045,19 +5246,19 @@
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C146" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D146">
-        <v>0.2</v>
+        <v>0.0009017132551848512</v>
       </c>
       <c r="E146" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="F146" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -5068,22 +5269,22 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D147">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F147" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5091,19 +5292,19 @@
         <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D148">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="E148" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>443</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -5114,19 +5315,19 @@
         <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C149" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D149">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>214</v>
+        <v>319</v>
       </c>
       <c r="F149" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -5134,22 +5335,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D150">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="E150" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F150" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -5157,48 +5358,48 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D151">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E151" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F151" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B152" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C152" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D152">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E152" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F152" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5206,22 +5407,22 @@
         <v>140</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C153" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E153" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F153" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5229,19 +5430,19 @@
         <v>141</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D154">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="F154" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="G154" t="b">
         <v>0</v>
@@ -5252,88 +5453,88 @@
         <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="C155" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D155">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="B156" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="C156" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="F156" t="s">
-        <v>261</v>
+        <v>449</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D157">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E157" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="F157" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D158">
         <v>0.5</v>
       </c>
       <c r="E158" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -5341,22 +5542,22 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C159" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D159">
-        <v>0.06666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E159" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F159" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -5364,22 +5565,22 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C160" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D160">
         <v>0.5</v>
       </c>
       <c r="E160" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -5390,42 +5591,42 @@
         <v>145</v>
       </c>
       <c r="B161" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C161" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E161" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F161" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B162" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C162" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D162">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E162" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F162" t="s">
-        <v>366</v>
+        <v>452</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -5433,45 +5634,45 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B163" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="C163" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="D163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B164" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D164">
-        <v>0.04347826086956522</v>
+        <v>0.25</v>
       </c>
       <c r="E164" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>334</v>
+        <v>435</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -5479,22 +5680,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B165" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D165">
         <v>0.5</v>
       </c>
       <c r="E165" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F165" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
@@ -5502,22 +5703,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B166" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E166" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="F166" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
@@ -5525,22 +5726,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C167" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D167">
-        <v>0.03448275862068965</v>
+        <v>0.5</v>
       </c>
       <c r="E167" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="F167" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
@@ -5548,45 +5749,45 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="B168" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="C168" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="F168" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="B169" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C169" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D169">
-        <v>0.3333333333333333</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E169" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F169" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -5594,45 +5795,45 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B170" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="C170" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D170">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F170" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B171" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C171" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D171">
         <v>0.3333333333333333</v>
       </c>
       <c r="E171" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F171" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
@@ -5643,42 +5844,42 @@
         <v>151</v>
       </c>
       <c r="B172" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C172" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E172" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="F172" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="B173" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C173" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D173">
-        <v>0.0625</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E173" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F173" t="s">
-        <v>360</v>
+        <v>457</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
@@ -5686,45 +5887,45 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B174" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="C174" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D174">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B175" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C175" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D175">
-        <v>0.3333333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="E175" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F175" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
@@ -5732,22 +5933,22 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B176" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C176" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D176">
         <v>0.5</v>
       </c>
       <c r="E176" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="F176" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -5755,22 +5956,22 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B177" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C177" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D177">
         <v>0.3333333333333333</v>
       </c>
       <c r="E177" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F177" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
@@ -5781,19 +5982,19 @@
         <v>155</v>
       </c>
       <c r="B178" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D178">
         <v>0.5</v>
       </c>
       <c r="E178" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="F178" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -5804,19 +6005,19 @@
         <v>156</v>
       </c>
       <c r="B179" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D179">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E179" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F179" t="s">
-        <v>292</v>
+        <v>461</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -5827,22 +6028,22 @@
         <v>157</v>
       </c>
       <c r="B180" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C180" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D180">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E180" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F180" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5850,22 +6051,22 @@
         <v>158</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C181" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D181">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="E181" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F181" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5873,42 +6074,42 @@
         <v>159</v>
       </c>
       <c r="B182" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="C182" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D182">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="F182" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C183" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D183">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E183" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>464</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -5916,22 +6117,22 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C184" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D184">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E184" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F184" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
@@ -5939,25 +6140,25 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B185" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C185" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D185">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E185" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F185" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5965,19 +6166,19 @@
         <v>162</v>
       </c>
       <c r="B186" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C186" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E186" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F186" t="s">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
@@ -5985,22 +6186,22 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="B187" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="C187" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D187">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="F187" t="s">
-        <v>282</v>
+        <v>467</v>
       </c>
       <c r="G187" t="b">
         <v>0</v>
@@ -6008,48 +6209,48 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B188" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="F188" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C189" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D189">
-        <v>0.05882352941176471</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F189" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6057,19 +6258,19 @@
         <v>165</v>
       </c>
       <c r="B190" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="C190" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D190">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="F190" t="s">
-        <v>273</v>
+        <v>468</v>
       </c>
       <c r="G190" t="b">
         <v>0</v>
@@ -6080,22 +6281,22 @@
         <v>166</v>
       </c>
       <c r="B191" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C191" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D191">
-        <v>0.1</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E191" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F191" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6103,22 +6304,22 @@
         <v>167</v>
       </c>
       <c r="B192" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C192" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D192">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="F192" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6126,19 +6327,19 @@
         <v>168</v>
       </c>
       <c r="B193" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="C193" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D193">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="F193" t="s">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="G193" t="b">
         <v>0</v>
@@ -6149,22 +6350,22 @@
         <v>169</v>
       </c>
       <c r="B194" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C194" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D194">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E194" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F194" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6172,22 +6373,22 @@
         <v>170</v>
       </c>
       <c r="B195" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C195" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D195">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F195" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6195,22 +6396,22 @@
         <v>171</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="C196" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D196">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F196" t="s">
-        <v>268</v>
+        <v>421</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6218,22 +6419,22 @@
         <v>172</v>
       </c>
       <c r="B197" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C197" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D197">
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="F197" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6241,19 +6442,19 @@
         <v>173</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C198" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D198">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E198" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F198" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
@@ -6264,19 +6465,19 @@
         <v>174</v>
       </c>
       <c r="B199" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="C199" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D199">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F199" t="s">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="G199" t="b">
         <v>0</v>
@@ -6284,22 +6485,22 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C200" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D200">
         <v>0.5</v>
       </c>
       <c r="E200" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F200" t="s">
-        <v>261</v>
+        <v>472</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
@@ -6307,22 +6508,22 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B201" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C201" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D201">
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="F201" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G201" t="b">
         <v>0</v>
@@ -6330,25 +6531,25 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C202" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D202">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E202" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F202" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6356,22 +6557,22 @@
         <v>177</v>
       </c>
       <c r="B203" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="C203" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D203">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="F203" t="s">
-        <v>335</v>
+        <v>473</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6379,19 +6580,19 @@
         <v>178</v>
       </c>
       <c r="B204" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="C204" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D204">
         <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="F204" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="G204" t="b">
         <v>0</v>
@@ -6402,111 +6603,111 @@
         <v>179</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C205" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D205">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E205" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="C206" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D206">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="F206" t="s">
-        <v>261</v>
+        <v>475</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>287</v>
       </c>
       <c r="C207" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D207">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="F207" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C208" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D208">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E208" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C209" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D209">
         <v>0.25</v>
       </c>
       <c r="E209" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F209" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
@@ -6514,45 +6715,45 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B210" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="C210" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D210">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="F210" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C211" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D211">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E211" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -6563,19 +6764,19 @@
         <v>184</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C212" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D212">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E212" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F212" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -6586,22 +6787,22 @@
         <v>185</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C213" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D213">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E213" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6609,22 +6810,22 @@
         <v>186</v>
       </c>
       <c r="B214" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E214" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6632,88 +6833,88 @@
         <v>187</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C215" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D215">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F215" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="C216" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D216">
-        <v>0.03448275862068965</v>
+        <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="F216" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="B217" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="C217" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D217">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="F217" t="s">
-        <v>261</v>
+        <v>482</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B218" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D218">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E218" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
@@ -6721,22 +6922,22 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B219" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D219">
-        <v>0.1</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E219" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F219" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
@@ -6744,22 +6945,22 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B220" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E220" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F220" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -6767,68 +6968,68 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="B221" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E221" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F221" t="s">
-        <v>299</v>
+        <v>484</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B222" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C222" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E222" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>485</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B223" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C223" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="D223">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F223" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
@@ -6836,22 +7037,22 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="B224" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C224" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D224">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E224" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F224" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="G224" t="b">
         <v>0</v>
@@ -6859,22 +7060,22 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="B225" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="C225" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D225">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E225" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="F225" t="s">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="G225" t="b">
         <v>0</v>
@@ -6882,22 +7083,22 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="B226" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D226">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F226" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
@@ -6905,68 +7106,68 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B227" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="C227" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D227">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C228" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F228" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="B229" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C229" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="D229">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="E229" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F229" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
@@ -6974,114 +7175,114 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B230" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C230" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D230">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E230" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F230" t="s">
-        <v>342</v>
+        <v>487</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B231" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D231">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F231" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C232" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D232">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F232" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C233" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D233">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="F233" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C234" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D234">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E234" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F234" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
@@ -7089,22 +7290,22 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="B235" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C235" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D235">
-        <v>0.5</v>
+        <v>0.0625</v>
       </c>
       <c r="E235" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="F235" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
@@ -7115,22 +7316,22 @@
         <v>197</v>
       </c>
       <c r="B236" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C236" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D236">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E236" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F236" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7138,22 +7339,22 @@
         <v>198</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C237" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E237" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="F237" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7161,22 +7362,22 @@
         <v>199</v>
       </c>
       <c r="B238" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C238" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D238">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E238" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="F238" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7184,19 +7385,19 @@
         <v>200</v>
       </c>
       <c r="B239" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="C239" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D239">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F239" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="G239" t="b">
         <v>0</v>
@@ -7207,22 +7408,22 @@
         <v>201</v>
       </c>
       <c r="B240" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="C240" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="D240">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="F240" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7230,19 +7431,19 @@
         <v>202</v>
       </c>
       <c r="B241" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="C241" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D241">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="F241" t="s">
-        <v>353</v>
+        <v>471</v>
       </c>
       <c r="G241" t="b">
         <v>0</v>
@@ -7253,19 +7454,19 @@
         <v>203</v>
       </c>
       <c r="B242" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="C242" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D242">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F242" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="G242" t="b">
         <v>0</v>
@@ -7276,19 +7477,19 @@
         <v>204</v>
       </c>
       <c r="B243" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C243" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D243">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E243" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F243" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
@@ -7299,19 +7500,19 @@
         <v>205</v>
       </c>
       <c r="B244" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="C244" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D244">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F244" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G244" t="b">
         <v>0</v>
@@ -7322,19 +7523,19 @@
         <v>206</v>
       </c>
       <c r="B245" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C245" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D245">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E245" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="F245" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="G245" t="b">
         <v>0</v>
@@ -7345,19 +7546,19 @@
         <v>207</v>
       </c>
       <c r="B246" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C246" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D246">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E246" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F246" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
@@ -7368,22 +7569,22 @@
         <v>208</v>
       </c>
       <c r="B247" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="C247" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D247">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E247" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F247" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7391,22 +7592,22 @@
         <v>209</v>
       </c>
       <c r="B248" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="C248" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D248">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="F248" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="G248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7414,19 +7615,19 @@
         <v>210</v>
       </c>
       <c r="B249" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C249" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="D249">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E249" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="F249" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
@@ -7434,22 +7635,22 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="B250" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C250" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E250" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F250" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
@@ -7457,45 +7658,45 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B251" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C251" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E251" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="F251" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="G251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B252" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C252" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D252">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E252" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F252" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
@@ -7503,24 +7704,139 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B253" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C253" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D253">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E253" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F253" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="G253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>215</v>
+      </c>
+      <c r="B254" t="s">
+        <v>219</v>
+      </c>
+      <c r="C254" t="s">
+        <v>300</v>
+      </c>
+      <c r="D254">
+        <v>0.125</v>
+      </c>
+      <c r="E254" t="s">
+        <v>219</v>
+      </c>
+      <c r="F254" t="s">
+        <v>503</v>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>39</v>
+      </c>
+      <c r="B255" t="s">
+        <v>235</v>
+      </c>
+      <c r="C255" t="s">
+        <v>301</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>302</v>
+      </c>
+      <c r="F255" t="s">
+        <v>354</v>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>216</v>
+      </c>
+      <c r="B256" t="s">
+        <v>297</v>
+      </c>
+      <c r="C256" t="s">
+        <v>301</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>321</v>
+      </c>
+      <c r="F256" t="s">
+        <v>504</v>
+      </c>
+      <c r="G256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>217</v>
+      </c>
+      <c r="B257" t="s">
+        <v>219</v>
+      </c>
+      <c r="C257" t="s">
+        <v>300</v>
+      </c>
+      <c r="D257">
+        <v>0.2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>219</v>
+      </c>
+      <c r="F257" t="s">
+        <v>505</v>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>218</v>
+      </c>
+      <c r="B258" t="s">
+        <v>298</v>
+      </c>
+      <c r="C258" t="s">
+        <v>300</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>319</v>
+      </c>
+      <c r="F258" t="s">
+        <v>506</v>
+      </c>
+      <c r="G258" t="b">
         <v>0</v>
       </c>
     </row>
